--- a/Document/EXCEL/testcase.xlsx
+++ b/Document/EXCEL/testcase.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\배용호\Documents\GitHub\2uzubook\Document\EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\2uzubook\Document\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9888"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9885"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>해결방안</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,13 +155,21 @@
   </si>
   <si>
     <t>배용호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김소연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -491,17 +499,17 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.796875" customWidth="1"/>
-    <col min="2" max="2" width="66.09765625" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" customWidth="1"/>
+    <col min="1" max="1" width="48.75" customWidth="1"/>
+    <col min="2" max="2" width="66.125" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -515,18 +523,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
       <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -537,7 +548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -548,7 +559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -559,7 +570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -570,7 +581,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -581,7 +592,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -592,7 +603,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -603,7 +614,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -614,7 +625,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -628,5 +639,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>